--- a/inputs/EU_sources_1.xlsx
+++ b/inputs/EU_sources_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctoruno\Documents\GitHub\WJP-news-tracker\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68280F1A-F7AB-48C7-A5C7-11884E5A92B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74F927-D790-4398-B955-A336E0F2E6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2236,7 +2236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2255,12 +2255,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2275,7 +2269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2383,23 +2377,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2723,8 +2706,8 @@
   <dimension ref="A1:AI212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4091,7 +4074,7 @@
       <c r="B45" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="58" t="s">
         <v>127</v>
       </c>
       <c r="D45" s="40" t="s">
@@ -4121,7 +4104,7 @@
       <c r="B46" s="44" t="s">
         <v>635</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="58" t="s">
         <v>127</v>
       </c>
       <c r="D46" s="40" t="s">
@@ -4298,7 +4281,7 @@
       <c r="A52" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="57" t="s">
         <v>143</v>
       </c>
       <c r="C52" s="37" t="s">
@@ -4328,7 +4311,7 @@
       <c r="A53" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="57" t="s">
         <v>639</v>
       </c>
       <c r="C53" s="37" t="s">
@@ -5468,7 +5451,7 @@
       <c r="A91" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="B91" s="57" t="s">
+      <c r="B91" s="56" t="s">
         <v>619</v>
       </c>
       <c r="C91" s="37" t="s">
@@ -5498,7 +5481,7 @@
       <c r="A92" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="B92" s="57" t="s">
+      <c r="B92" s="56" t="s">
         <v>620</v>
       </c>
       <c r="C92" s="37" t="s">
@@ -6005,31 +5988,31 @@
       <c r="J108"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="60" t="s">
+      <c r="A109" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B109" s="60" t="s">
+      <c r="B109" s="44" t="s">
         <v>646</v>
       </c>
-      <c r="C109" s="60" t="s">
+      <c r="C109" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="D109" s="55" t="s">
+      <c r="D109" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="E109" s="61" t="s">
+      <c r="E109" s="39" t="s">
         <v>647</v>
       </c>
-      <c r="F109" s="62" t="s">
+      <c r="F109" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G109" s="63" t="s">
+      <c r="G109" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H109" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" s="55" t="s">
+      <c r="H109" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" s="40" t="s">
         <v>11</v>
       </c>
       <c r="J109"/>
@@ -6695,7 +6678,7 @@
       <c r="J131"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="56" t="s">
+      <c r="A132" s="55" t="s">
         <v>350</v>
       </c>
       <c r="B132" s="27" t="s">
@@ -9317,15 +9300,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -9574,15 +9548,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6A6A2A-9F2B-4A1E-84AA-D76F099E0219}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B408E736-DE48-4939-B0F7-428DF30815C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9599,4 +9574,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6A6A2A-9F2B-4A1E-84AA-D76F099E0219}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inputs/EU_sources_1.xlsx
+++ b/inputs/EU_sources_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctoruno\Documents\GitHub\WJP-news-tracker\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74F927-D790-4398-B955-A336E0F2E6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8882C8-7F8A-4A8B-8D63-2E881B700030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
@@ -2269,7 +2269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2383,6 +2383,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2706,24 +2730,24 @@
   <dimension ref="A1:AI212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G217" sqref="G217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>695</v>
       </c>
@@ -2752,7 +2776,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
@@ -2807,7 +2831,7 @@
       <c r="AH2" s="11"/>
       <c r="AI2" s="8"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
@@ -2837,7 +2861,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -2867,7 +2891,7 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -2897,7 +2921,7 @@
       </c>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
@@ -2927,7 +2951,7 @@
       </c>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -2957,37 +2981,37 @@
       </c>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>11</v>
+      <c r="H8" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -3017,7 +3041,7 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
@@ -3047,7 +3071,7 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>5</v>
       </c>
@@ -3077,7 +3101,7 @@
       </c>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>5</v>
       </c>
@@ -3107,7 +3131,7 @@
       </c>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>5</v>
       </c>
@@ -3137,7 +3161,7 @@
       </c>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
@@ -3167,7 +3191,7 @@
       </c>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>40</v>
       </c>
@@ -3197,7 +3221,7 @@
       </c>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>40</v>
       </c>
@@ -3227,7 +3251,7 @@
       </c>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>40</v>
       </c>
@@ -3257,7 +3281,7 @@
       </c>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>40</v>
       </c>
@@ -3287,7 +3311,7 @@
       </c>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>40</v>
       </c>
@@ -3317,7 +3341,7 @@
       </c>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>40</v>
       </c>
@@ -3347,7 +3371,7 @@
       </c>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>40</v>
       </c>
@@ -3377,7 +3401,7 @@
       </c>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
         <v>40</v>
       </c>
@@ -3407,7 +3431,7 @@
       </c>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>40</v>
       </c>
@@ -3437,7 +3461,7 @@
       </c>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>40</v>
       </c>
@@ -3467,7 +3491,7 @@
       </c>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>40</v>
       </c>
@@ -3497,7 +3521,7 @@
       </c>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>40</v>
       </c>
@@ -3527,7 +3551,7 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>40</v>
       </c>
@@ -3557,7 +3581,7 @@
       </c>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>77</v>
       </c>
@@ -3587,7 +3611,7 @@
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>77</v>
       </c>
@@ -3617,7 +3641,7 @@
       </c>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
         <v>77</v>
       </c>
@@ -3647,7 +3671,7 @@
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>77</v>
       </c>
@@ -3677,7 +3701,7 @@
       </c>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
         <v>77</v>
       </c>
@@ -3707,7 +3731,7 @@
       </c>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
         <v>77</v>
       </c>
@@ -3737,7 +3761,7 @@
       </c>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>77</v>
       </c>
@@ -3767,7 +3791,7 @@
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>77</v>
       </c>
@@ -3797,7 +3821,7 @@
       </c>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>101</v>
       </c>
@@ -3827,7 +3851,7 @@
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>101</v>
       </c>
@@ -3857,7 +3881,7 @@
       </c>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
         <v>101</v>
       </c>
@@ -3887,7 +3911,7 @@
       </c>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>101</v>
       </c>
@@ -3917,7 +3941,7 @@
       </c>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
         <v>101</v>
       </c>
@@ -3947,7 +3971,7 @@
       </c>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
         <v>101</v>
       </c>
@@ -3977,7 +4001,7 @@
       </c>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>101</v>
       </c>
@@ -4007,7 +4031,7 @@
       </c>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>101</v>
       </c>
@@ -4037,7 +4061,7 @@
       </c>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>101</v>
       </c>
@@ -4067,7 +4091,7 @@
       </c>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>125</v>
       </c>
@@ -4097,7 +4121,7 @@
       </c>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>125</v>
       </c>
@@ -4127,7 +4151,7 @@
       </c>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>125</v>
       </c>
@@ -4157,37 +4181,37 @@
       </c>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>49</v>
+      <c r="H48" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>11</v>
       </c>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>134</v>
       </c>
@@ -4217,7 +4241,7 @@
       </c>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>134</v>
       </c>
@@ -4247,7 +4271,7 @@
       </c>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>134</v>
       </c>
@@ -4277,7 +4301,7 @@
       </c>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="36" t="s">
         <v>134</v>
       </c>
@@ -4307,7 +4331,7 @@
       </c>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
         <v>134</v>
       </c>
@@ -4337,7 +4361,7 @@
       </c>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="36" t="s">
         <v>134</v>
       </c>
@@ -4367,7 +4391,7 @@
       </c>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="36" t="s">
         <v>147</v>
       </c>
@@ -4397,7 +4421,7 @@
       </c>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="36" t="s">
         <v>147</v>
       </c>
@@ -4427,7 +4451,7 @@
       </c>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="36" t="s">
         <v>147</v>
       </c>
@@ -4457,7 +4481,7 @@
       </c>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>147</v>
       </c>
@@ -4487,7 +4511,7 @@
       </c>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>147</v>
       </c>
@@ -4517,7 +4541,7 @@
       </c>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>147</v>
       </c>
@@ -4547,7 +4571,7 @@
       </c>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
         <v>147</v>
       </c>
@@ -4577,7 +4601,7 @@
       </c>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
         <v>147</v>
       </c>
@@ -4607,7 +4631,7 @@
       </c>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
         <v>147</v>
       </c>
@@ -4637,7 +4661,7 @@
       </c>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="36" t="s">
         <v>171</v>
       </c>
@@ -4667,7 +4691,7 @@
       </c>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="36" t="s">
         <v>171</v>
       </c>
@@ -4697,7 +4721,7 @@
       </c>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="36" t="s">
         <v>171</v>
       </c>
@@ -4727,7 +4751,7 @@
       </c>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="44" t="s">
         <v>181</v>
       </c>
@@ -4757,7 +4781,7 @@
       </c>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="44" t="s">
         <v>181</v>
       </c>
@@ -4787,7 +4811,7 @@
       </c>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="23" t="s">
         <v>181</v>
       </c>
@@ -4817,7 +4841,7 @@
       </c>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="36" t="s">
         <v>181</v>
       </c>
@@ -4847,37 +4871,37 @@
       </c>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="D71" s="40" t="s">
+      <c r="D71" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="F71" s="40" t="s">
+      <c r="F71" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="G71" s="41" t="s">
+      <c r="G71" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71" s="40" t="s">
-        <v>11</v>
+      <c r="H71" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>181</v>
       </c>
@@ -4907,7 +4931,7 @@
       </c>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>181</v>
       </c>
@@ -4937,7 +4961,7 @@
       </c>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>181</v>
       </c>
@@ -4967,7 +4991,7 @@
       </c>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>181</v>
       </c>
@@ -4997,7 +5021,7 @@
       </c>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
         <v>181</v>
       </c>
@@ -5027,7 +5051,7 @@
       </c>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
         <v>181</v>
       </c>
@@ -5057,7 +5081,7 @@
       </c>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="23" t="s">
         <v>181</v>
       </c>
@@ -5087,7 +5111,7 @@
       </c>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>218</v>
       </c>
@@ -5117,7 +5141,7 @@
       </c>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
         <v>218</v>
       </c>
@@ -5147,7 +5171,7 @@
       </c>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
         <v>218</v>
       </c>
@@ -5177,7 +5201,7 @@
       </c>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
         <v>218</v>
       </c>
@@ -5207,7 +5231,7 @@
       </c>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="36" t="s">
         <v>218</v>
       </c>
@@ -5237,7 +5261,7 @@
       </c>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="23" t="s">
         <v>218</v>
       </c>
@@ -5267,7 +5291,7 @@
       </c>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="23" t="s">
         <v>218</v>
       </c>
@@ -5297,67 +5321,67 @@
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D86" s="38" t="s">
+      <c r="D86" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="E86" s="39" t="s">
+      <c r="E86" s="31" t="s">
         <v>609</v>
       </c>
-      <c r="F86" s="40" t="s">
+      <c r="F86" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G86" s="41" t="s">
+      <c r="G86" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="H86" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I86" s="40" t="s">
-        <v>11</v>
+      <c r="H86" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="36" t="s">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="D87" s="38" t="s">
+      <c r="D87" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="E87" s="42" t="s">
+      <c r="E87" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="F87" s="40" t="s">
+      <c r="F87" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="G87" s="41" t="s">
+      <c r="G87" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="H87" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" s="40" t="s">
-        <v>11</v>
+      <c r="H87" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>218</v>
       </c>
@@ -5387,7 +5411,7 @@
       </c>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>218</v>
       </c>
@@ -5417,7 +5441,7 @@
       </c>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>218</v>
       </c>
@@ -5447,7 +5471,7 @@
       </c>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="36" t="s">
         <v>218</v>
       </c>
@@ -5477,7 +5501,7 @@
       </c>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="36" t="s">
         <v>218</v>
       </c>
@@ -5507,7 +5531,7 @@
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="23" t="s">
         <v>218</v>
       </c>
@@ -5537,7 +5561,7 @@
       </c>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23" t="s">
         <v>266</v>
       </c>
@@ -5567,7 +5591,7 @@
       </c>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="36" t="s">
         <v>266</v>
       </c>
@@ -5597,7 +5621,7 @@
       </c>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>266</v>
       </c>
@@ -5627,37 +5651,37 @@
       </c>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="36" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="D97" s="40" t="s">
+      <c r="D97" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="E97" s="42" t="s">
+      <c r="E97" s="61" t="s">
         <v>689</v>
       </c>
-      <c r="F97" s="40" t="s">
+      <c r="F97" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="41" t="s">
+      <c r="G97" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H97" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" s="40" t="s">
-        <v>11</v>
+      <c r="H97" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="36" t="s">
         <v>266</v>
       </c>
@@ -5687,7 +5711,7 @@
       </c>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>266</v>
       </c>
@@ -5717,7 +5741,7 @@
       </c>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="36" t="s">
         <v>266</v>
       </c>
@@ -5747,7 +5771,7 @@
       </c>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="23" t="s">
         <v>266</v>
       </c>
@@ -5777,7 +5801,7 @@
       </c>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="s">
         <v>266</v>
       </c>
@@ -5807,7 +5831,7 @@
       </c>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>266</v>
       </c>
@@ -5837,7 +5861,7 @@
       </c>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>266</v>
       </c>
@@ -5867,7 +5891,7 @@
       </c>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="s">
         <v>266</v>
       </c>
@@ -5897,7 +5921,7 @@
       </c>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23" t="s">
         <v>266</v>
       </c>
@@ -5927,7 +5951,7 @@
       </c>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>266</v>
       </c>
@@ -5957,7 +5981,7 @@
       </c>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="23" t="s">
         <v>266</v>
       </c>
@@ -5987,7 +6011,7 @@
       </c>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="44" t="s">
         <v>266</v>
       </c>
@@ -6017,7 +6041,7 @@
       </c>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
         <v>266</v>
       </c>
@@ -6047,7 +6071,7 @@
       </c>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="s">
         <v>266</v>
       </c>
@@ -6077,7 +6101,7 @@
       </c>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="36" t="s">
         <v>322</v>
       </c>
@@ -6107,7 +6131,7 @@
       </c>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="36" t="s">
         <v>322</v>
       </c>
@@ -6137,7 +6161,7 @@
       </c>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="36" t="s">
         <v>322</v>
       </c>
@@ -6167,7 +6191,7 @@
       </c>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="23" t="s">
         <v>322</v>
       </c>
@@ -6197,7 +6221,7 @@
       </c>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>322</v>
       </c>
@@ -6227,7 +6251,7 @@
       </c>
       <c r="J116"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>322</v>
       </c>
@@ -6257,7 +6281,7 @@
       </c>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>322</v>
       </c>
@@ -6287,7 +6311,7 @@
       </c>
       <c r="J118"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="23" t="s">
         <v>322</v>
       </c>
@@ -6317,7 +6341,7 @@
       </c>
       <c r="J119"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="36" t="s">
         <v>338</v>
       </c>
@@ -6347,7 +6371,7 @@
       </c>
       <c r="J120"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="36" t="s">
         <v>338</v>
       </c>
@@ -6377,37 +6401,37 @@
       </c>
       <c r="J121"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="36" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="B122" s="36" t="s">
+      <c r="B122" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="C122" s="37" t="s">
+      <c r="C122" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="D122" s="40" t="s">
+      <c r="D122" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="E122" s="39" t="s">
+      <c r="E122" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="F122" s="40" t="s">
+      <c r="F122" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="G122" s="41" t="s">
+      <c r="G122" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="H122" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" s="40" t="s">
-        <v>11</v>
+      <c r="H122" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J122"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="44" t="s">
         <v>338</v>
       </c>
@@ -6437,7 +6461,7 @@
       </c>
       <c r="J123"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="27" t="s">
         <v>338</v>
       </c>
@@ -6467,7 +6491,7 @@
       </c>
       <c r="J124"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="27" t="s">
         <v>338</v>
       </c>
@@ -6497,7 +6521,7 @@
       </c>
       <c r="J125"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="23" t="s">
         <v>338</v>
       </c>
@@ -6527,7 +6551,7 @@
       </c>
       <c r="J126"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="35" t="s">
         <v>350</v>
       </c>
@@ -6557,37 +6581,37 @@
       </c>
       <c r="J127"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="47" t="s">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="B128" s="36" t="s">
+      <c r="B128" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="D128" s="40" t="s">
+      <c r="D128" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="E128" s="42" t="s">
+      <c r="E128" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="F128" s="40" t="s">
+      <c r="F128" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="G128" s="41" t="s">
+      <c r="G128" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="H128" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128" s="40" t="s">
-        <v>11</v>
+      <c r="H128" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J128"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="47" t="s">
         <v>350</v>
       </c>
@@ -6617,7 +6641,7 @@
       </c>
       <c r="J129"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>350</v>
       </c>
@@ -6647,7 +6671,7 @@
       </c>
       <c r="J130"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="47" t="s">
         <v>350</v>
       </c>
@@ -6677,7 +6701,7 @@
       </c>
       <c r="J131"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="55" t="s">
         <v>350</v>
       </c>
@@ -6707,7 +6731,7 @@
       </c>
       <c r="J132"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="47" t="s">
         <v>350</v>
       </c>
@@ -6737,7 +6761,7 @@
       </c>
       <c r="J133"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="35" t="s">
         <v>350</v>
       </c>
@@ -6767,7 +6791,7 @@
       </c>
       <c r="J134"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="47" t="s">
         <v>373</v>
       </c>
@@ -6797,7 +6821,7 @@
       </c>
       <c r="J135"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
         <v>373</v>
       </c>
@@ -6827,7 +6851,7 @@
       </c>
       <c r="J136"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="47" t="s">
         <v>373</v>
       </c>
@@ -6857,7 +6881,7 @@
       </c>
       <c r="J137"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
         <v>373</v>
       </c>
@@ -6887,7 +6911,7 @@
       </c>
       <c r="J138"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
         <v>373</v>
       </c>
@@ -6917,7 +6941,7 @@
       </c>
       <c r="J139"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="35" t="s">
         <v>373</v>
       </c>
@@ -6947,37 +6971,37 @@
       </c>
       <c r="J140"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="47" t="s">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="B141" s="36" t="s">
+      <c r="B141" s="59" t="s">
         <v>670</v>
       </c>
-      <c r="C141" s="36" t="s">
+      <c r="C141" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="D141" s="40" t="s">
+      <c r="D141" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="E141" s="42" t="s">
+      <c r="E141" s="61" t="s">
         <v>673</v>
       </c>
-      <c r="F141" s="40" t="s">
+      <c r="F141" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="G141" s="46" t="s">
+      <c r="G141" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H141" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I141" s="40" t="s">
-        <v>11</v>
+      <c r="H141" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J141"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="35" t="s">
         <v>373</v>
       </c>
@@ -7007,37 +7031,37 @@
       </c>
       <c r="J142"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="47" t="s">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="B143" s="36" t="s">
+      <c r="B143" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="D143" s="40" t="s">
+      <c r="D143" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="E143" s="42" t="s">
+      <c r="E143" s="61" t="s">
         <v>400</v>
       </c>
-      <c r="F143" s="40" t="s">
+      <c r="F143" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="G143" s="41" t="s">
+      <c r="G143" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H143" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I143" s="40" t="s">
-        <v>11</v>
+      <c r="H143" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J143"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="47" t="s">
         <v>373</v>
       </c>
@@ -7067,37 +7091,37 @@
       </c>
       <c r="J144"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="47" t="s">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="65" t="s">
         <v>402</v>
       </c>
-      <c r="B145" s="36" t="s">
+      <c r="B145" s="59" t="s">
         <v>403</v>
       </c>
-      <c r="C145" s="36" t="s">
+      <c r="C145" s="59" t="s">
         <v>404</v>
       </c>
-      <c r="D145" s="40" t="s">
+      <c r="D145" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="E145" s="42" t="s">
+      <c r="E145" s="61" t="s">
         <v>406</v>
       </c>
-      <c r="F145" s="40" t="s">
+      <c r="F145" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="G145" s="41" t="s">
+      <c r="G145" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="H145" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I145" s="40" t="s">
-        <v>11</v>
+      <c r="H145" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J145"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="47" t="s">
         <v>402</v>
       </c>
@@ -7127,7 +7151,7 @@
       </c>
       <c r="J146"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="47" t="s">
         <v>402</v>
       </c>
@@ -7157,7 +7181,7 @@
       </c>
       <c r="J147"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="47" t="s">
         <v>402</v>
       </c>
@@ -7187,7 +7211,7 @@
       </c>
       <c r="J148"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="35" t="s">
         <v>402</v>
       </c>
@@ -7217,7 +7241,7 @@
       </c>
       <c r="J149"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="35" t="s">
         <v>402</v>
       </c>
@@ -7247,7 +7271,7 @@
       </c>
       <c r="J150"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="47" t="s">
         <v>416</v>
       </c>
@@ -7277,7 +7301,7 @@
       </c>
       <c r="J151"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="47" t="s">
         <v>416</v>
       </c>
@@ -7307,7 +7331,7 @@
       </c>
       <c r="J152"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="47" t="s">
         <v>416</v>
       </c>
@@ -7337,7 +7361,7 @@
       </c>
       <c r="J153"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="47" t="s">
         <v>428</v>
       </c>
@@ -7367,7 +7391,7 @@
       </c>
       <c r="J154"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="47" t="s">
         <v>428</v>
       </c>
@@ -7397,7 +7421,7 @@
       </c>
       <c r="J155"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="47" t="s">
         <v>428</v>
       </c>
@@ -7427,7 +7451,7 @@
       </c>
       <c r="J156"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="47" t="s">
         <v>437</v>
       </c>
@@ -7457,7 +7481,7 @@
       </c>
       <c r="J157"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="47" t="s">
         <v>437</v>
       </c>
@@ -7487,7 +7511,7 @@
       </c>
       <c r="J158"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
         <v>437</v>
       </c>
@@ -7517,7 +7541,7 @@
       </c>
       <c r="J159"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="35" t="s">
         <v>437</v>
       </c>
@@ -7547,7 +7571,7 @@
       </c>
       <c r="J160"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="47" t="s">
         <v>453</v>
       </c>
@@ -7577,7 +7601,7 @@
       </c>
       <c r="J161"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="47" t="s">
         <v>453</v>
       </c>
@@ -7607,7 +7631,7 @@
       </c>
       <c r="J162"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="47" t="s">
         <v>453</v>
       </c>
@@ -7637,7 +7661,7 @@
       </c>
       <c r="J163"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="47" t="s">
         <v>453</v>
       </c>
@@ -7667,7 +7691,7 @@
       </c>
       <c r="J164"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>453</v>
       </c>
@@ -7697,37 +7721,37 @@
       </c>
       <c r="J165"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="47" t="s">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="65" t="s">
         <v>453</v>
       </c>
-      <c r="B166" s="36" t="s">
+      <c r="B166" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="C166" s="36" t="s">
+      <c r="C166" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="D166" s="40" t="s">
+      <c r="D166" s="60" t="s">
         <v>456</v>
       </c>
-      <c r="E166" s="42" t="s">
+      <c r="E166" s="61" t="s">
         <v>470</v>
       </c>
-      <c r="F166" s="40" t="s">
+      <c r="F166" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G166" s="41" t="s">
+      <c r="G166" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H166" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I166" s="40" t="s">
-        <v>11</v>
+      <c r="H166" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I166" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J166"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
         <v>453</v>
       </c>
@@ -7757,7 +7781,7 @@
       </c>
       <c r="J167"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="35" t="s">
         <v>453</v>
       </c>
@@ -7787,7 +7811,7 @@
       </c>
       <c r="J168"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="35" t="s">
         <v>453</v>
       </c>
@@ -7817,7 +7841,7 @@
       </c>
       <c r="J169"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="47" t="s">
         <v>482</v>
       </c>
@@ -7847,7 +7871,7 @@
       </c>
       <c r="J170"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="47" t="s">
         <v>482</v>
       </c>
@@ -7877,7 +7901,7 @@
       </c>
       <c r="J171"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="47" t="s">
         <v>482</v>
       </c>
@@ -7907,7 +7931,7 @@
       </c>
       <c r="J172"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
         <v>482</v>
       </c>
@@ -7937,7 +7961,7 @@
       </c>
       <c r="J173"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
         <v>482</v>
       </c>
@@ -7967,7 +7991,7 @@
       </c>
       <c r="J174"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
         <v>496</v>
       </c>
@@ -7997,7 +8021,7 @@
       </c>
       <c r="J175"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="47" t="s">
         <v>496</v>
       </c>
@@ -8027,7 +8051,7 @@
       </c>
       <c r="J176"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="47" t="s">
         <v>496</v>
       </c>
@@ -8057,7 +8081,7 @@
       </c>
       <c r="J177"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
         <v>496</v>
       </c>
@@ -8087,7 +8111,7 @@
       </c>
       <c r="J178"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="47" t="s">
         <v>496</v>
       </c>
@@ -8117,7 +8141,7 @@
       </c>
       <c r="J179"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
         <v>496</v>
       </c>
@@ -8147,7 +8171,7 @@
       </c>
       <c r="J180"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="35" t="s">
         <v>496</v>
       </c>
@@ -8177,7 +8201,7 @@
       </c>
       <c r="J181"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="36" t="s">
         <v>516</v>
       </c>
@@ -8207,7 +8231,7 @@
       </c>
       <c r="J182"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="36" t="s">
         <v>516</v>
       </c>
@@ -8237,7 +8261,7 @@
       </c>
       <c r="J183"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="36" t="s">
         <v>516</v>
       </c>
@@ -8267,7 +8291,7 @@
       </c>
       <c r="J184"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>516</v>
       </c>
@@ -8297,7 +8321,7 @@
       </c>
       <c r="J185"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="23" t="s">
         <v>516</v>
       </c>
@@ -8327,7 +8351,7 @@
       </c>
       <c r="J186"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="36" t="s">
         <v>530</v>
       </c>
@@ -8357,7 +8381,7 @@
       </c>
       <c r="J187"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="36" t="s">
         <v>530</v>
       </c>
@@ -8387,7 +8411,7 @@
       </c>
       <c r="J188"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="36" t="s">
         <v>530</v>
       </c>
@@ -8417,7 +8441,7 @@
       </c>
       <c r="J189"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
         <v>530</v>
       </c>
@@ -8447,7 +8471,7 @@
       </c>
       <c r="J190"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="36" t="s">
         <v>542</v>
       </c>
@@ -8477,7 +8501,7 @@
       </c>
       <c r="J191"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="36" t="s">
         <v>542</v>
       </c>
@@ -8507,7 +8531,7 @@
       </c>
       <c r="J192"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="36" t="s">
         <v>542</v>
       </c>
@@ -8537,7 +8561,7 @@
       </c>
       <c r="J193"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>542</v>
       </c>
@@ -8567,7 +8591,7 @@
       </c>
       <c r="J194"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="23" t="s">
         <v>542</v>
       </c>
@@ -8597,7 +8621,7 @@
       </c>
       <c r="J195"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="35" t="s">
         <v>558</v>
       </c>
@@ -8627,7 +8651,7 @@
       </c>
       <c r="J196"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
         <v>558</v>
       </c>
@@ -8657,7 +8681,7 @@
       </c>
       <c r="J197"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="47" t="s">
         <v>558</v>
       </c>
@@ -8687,7 +8711,7 @@
       </c>
       <c r="J198"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="35" t="s">
         <v>558</v>
       </c>
@@ -8717,7 +8741,7 @@
       </c>
       <c r="J199"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="47" t="s">
         <v>558</v>
       </c>
@@ -8747,7 +8771,7 @@
       </c>
       <c r="J200"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
         <v>558</v>
       </c>
@@ -8777,7 +8801,7 @@
       </c>
       <c r="J201"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="50" t="s">
         <v>558</v>
       </c>
@@ -8807,7 +8831,7 @@
       </c>
       <c r="J202"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="50" t="s">
         <v>558</v>
       </c>
@@ -8837,37 +8861,37 @@
       </c>
       <c r="J203"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="50" t="s">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="67" t="s">
         <v>558</v>
       </c>
-      <c r="B204" s="44" t="s">
+      <c r="B204" s="68" t="s">
         <v>683</v>
       </c>
-      <c r="C204" s="48" t="s">
+      <c r="C204" s="69" t="s">
         <v>682</v>
       </c>
-      <c r="D204" s="49" t="s">
+      <c r="D204" s="70" t="s">
         <v>567</v>
       </c>
-      <c r="E204" s="39" t="s">
+      <c r="E204" s="31" t="s">
         <v>681</v>
       </c>
-      <c r="F204" s="49" t="s">
+      <c r="F204" s="70" t="s">
         <v>563</v>
       </c>
-      <c r="G204" s="46" t="s">
+      <c r="G204" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="H204" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I204" s="40" t="s">
-        <v>11</v>
+      <c r="H204" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I204" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J204"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="35" t="s">
         <v>558</v>
       </c>
@@ -8897,37 +8921,37 @@
       </c>
       <c r="J205"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="36" t="s">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" s="59" t="s">
         <v>586</v>
       </c>
-      <c r="B206" s="36" t="s">
+      <c r="B206" s="59" t="s">
         <v>587</v>
       </c>
-      <c r="C206" s="36" t="s">
+      <c r="C206" s="59" t="s">
         <v>588</v>
       </c>
-      <c r="D206" s="40" t="s">
+      <c r="D206" s="60" t="s">
         <v>589</v>
       </c>
-      <c r="E206" s="39" t="s">
+      <c r="E206" s="31" t="s">
         <v>590</v>
       </c>
-      <c r="F206" s="40" t="s">
+      <c r="F206" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="G206" s="41" t="s">
+      <c r="G206" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H206" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I206" s="40" t="s">
-        <v>11</v>
+      <c r="H206" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I206" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="J206"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="36" t="s">
         <v>586</v>
       </c>
@@ -8957,7 +8981,7 @@
       </c>
       <c r="J207"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="23" t="s">
         <v>586</v>
       </c>
@@ -8987,7 +9011,7 @@
       </c>
       <c r="J208"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="36" t="s">
         <v>586</v>
       </c>
@@ -9017,7 +9041,7 @@
       </c>
       <c r="J209"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="36" t="s">
         <v>586</v>
       </c>
@@ -9047,7 +9071,7 @@
       </c>
       <c r="J210"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="10" t="s">
         <v>586</v>
       </c>
@@ -9077,7 +9101,7 @@
       </c>
       <c r="J211"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="23" t="s">
         <v>586</v>
       </c>
@@ -9300,6 +9324,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -9548,16 +9581,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6A6A2A-9F2B-4A1E-84AA-D76F099E0219}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B408E736-DE48-4939-B0F7-428DF30815C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9574,12 +9606,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6A6A2A-9F2B-4A1E-84AA-D76F099E0219}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>